--- a/Resources/ResourcesRoot/物料信息.xlsx
+++ b/Resources/ResourcesRoot/物料信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="物料信息" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>物料信息</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>所属项目</t>
+  </si>
+  <si>
+    <t>单价</t>
   </si>
   <si>
     <t>备注</t>
@@ -66,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -86,22 +89,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,14 +136,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +167,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -153,25 +189,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,13 +220,12 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -200,38 +234,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +249,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,9 +445,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,27 +464,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,21 +502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -537,153 +516,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1016,12 +1019,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1036,8 +1039,8 @@
     <col min="10" max="10" width="16.7777777777778" customWidth="1"/>
     <col min="11" max="11" width="24" customWidth="1"/>
     <col min="12" max="12" width="17.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="15.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="20.1111111111111" customWidth="1"/>
+    <col min="13" max="14" width="15.8888888888889" customWidth="1"/>
+    <col min="15" max="15" width="20.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1" spans="1:1">
@@ -1045,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1087,6 +1090,9 @@
       </c>
       <c r="N2" t="s">
         <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
